--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,34 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurusaishreeshtirumalla/Dropbox/My Mac (gurusaishreesh-MBP.local)/Desktop/Emailbot_apk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663AB126-70EE-0B41-B106-9CA5883DD2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AD90BF-5DCE-7848-AF44-95F0710B9284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{36E2957E-6CDE-3C4D-9373-6583AB28DC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>S.NO</t>
-  </si>
-  <si>
-    <t>Contact name</t>
-  </si>
-  <si>
-    <t>Email address</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>myself</t>
@@ -37,41 +42,23 @@
     <t>gojo.testing123@gmail.com</t>
   </si>
   <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>guru.sai.shreesh@gmail.com</t>
+  </si>
+  <si>
     <t>komal mam</t>
   </si>
   <si>
     <t>komalkaur13@gmail.com</t>
-  </si>
-  <si>
-    <t>guru sai</t>
-  </si>
-  <si>
-    <t>guru.sai.shreesh@gmail.com</t>
-  </si>
-  <si>
-    <t>jennie</t>
-  </si>
-  <si>
-    <t>jennie@blackpink.com</t>
-  </si>
-  <si>
-    <t>lisa</t>
-  </si>
-  <si>
-    <t>lisa@blackpink.com</t>
-  </si>
-  <si>
-    <t>vallika</t>
-  </si>
-  <si>
-    <t>hellovallika@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,19 +70,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,13 +94,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -442,111 +413,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF498152-080F-3245-96A7-5BCBEAE97C4E}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{5FAA166F-C87D-5B43-9EF5-506B2700CC4C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{85D7A331-49F1-7A45-A91D-D7DBB4AB1BA0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6F9EA0E3-1BD4-A348-A5A0-8F9940F028C5}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2E14E758-1596-8C47-8E2C-E57921D00DE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurusaishreeshtirumalla/Dropbox/My Mac (gurusaishreesh-MBP.local)/Desktop/Emailbot_apk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurusaishreeshtirumalla/Desktop/pyproj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AD90BF-5DCE-7848-AF44-95F0710B9284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A71A2-C263-E947-A8B1-D62F396DB0DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{36E2957E-6CDE-3C4D-9373-6583AB28DC48}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{36E2957E-6CDE-3C4D-9373-6583AB28DC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>SNO</t>
   </si>
@@ -48,10 +48,13 @@
     <t>guru.sai.shreesh@gmail.com</t>
   </si>
   <si>
-    <t>komal mam</t>
-  </si>
-  <si>
-    <t>komalkaur13@gmail.com</t>
+    <t>alekhya</t>
+  </si>
+  <si>
+    <t>nishita mam</t>
+  </si>
+  <si>
+    <t>alekhyakanjarla@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF498152-080F-3245-96A7-5BCBEAE97C4E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,14 +470,26 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{85D7A331-49F1-7A45-A91D-D7DBB4AB1BA0}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{6F9EA0E3-1BD4-A348-A5A0-8F9940F028C5}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2E14E758-1596-8C47-8E2C-E57921D00DE3}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{9A4786B4-F0F3-444C-8F6A-205D36652944}"/>
+    <hyperlink ref="C4" r:id="rId4" display="gojo.testing123@gmail.com" xr:uid="{98DF030E-00B4-3B4E-B556-373C63892DC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
